--- a/test/org/hy/common/report/junit/append/config/templates/AppendComplex_T01.xlsx
+++ b/test/org/hy/common/report/junit/append/config/templates/AppendComplex_T01.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhengWei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace_SearchDesktop\hy.common.report\test\org\hy\common\report\junit\append\config\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7320"/>
   </bookViews>
   <sheets>
-    <sheet name="追加模式下的复合报表--模板01" sheetId="1" r:id="rId1"/>
+    <sheet name="追加模式的复合报表--模板01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -56,7 +56,7 @@
     <t>:name</t>
   </si>
   <si>
-    <t>追加模式下的复合报表--模板01</t>
+    <t>追加模式的复合报表--模板01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -253,36 +253,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -570,61 +570,61 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="11"/>
     </row>
   </sheetData>

--- a/test/org/hy/common/report/junit/append/config/templates/AppendComplex_T01.xlsx
+++ b/test/org/hy/common/report/junit/append/config/templates/AppendComplex_T01.xlsx
@@ -106,7 +106,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,19 +115,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,38 +241,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,61 +558,61 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="11"/>
     </row>
   </sheetData>
